--- a/PLScombined/PLScombined_predicted_factors_matrix_10.xlsx
+++ b/PLScombined/PLScombined_predicted_factors_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:AU11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-0.9388230195196119</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.9446614268089595</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.9576321672765061</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.9765359840590147</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1.00078881597978</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.029452920698801</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.061685042506635</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.096727382852152</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.133907424236054</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.172636371881531</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.212405108426904</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1.252778373688125</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1.293388026129266</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.333926025061529</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1.374137540292327</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1.413814423764791</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1.452789164660596</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1.490929379393415</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1.529002072936009</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1.565211479945468</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1.601240083086169</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-1.63618245169265</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-1.670007959188182</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-1.702700683531368</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1.734256686928458</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-1.764681719016661</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-1.793989227388221</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1.822198678061139</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-1.849334155426916</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1.87442239102396</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-1.898502194300308</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1.921605767018012</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-1.943768113285737</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1.965024856882671</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1.985411324161908</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-2.004962120575466</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-2.023710903389931</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-2.04169024224116</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-2.058931528090224</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-2.075464915231187</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-2.091319289113057</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-2.106522255416507</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-2.121100146651707</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-0.7379306394074887</v>
       </c>
+      <c r="F3" t="n">
+        <v>-0.7886163505821745</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.8129118790966577</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.8133411377459537</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.7978948485987812</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.7708533427948883</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7355551664195948</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.6946994012882078</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.6504599008928257</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.6045709552173281</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.5583972098746998</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.5129929981096236</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.4691534339126859</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.4274585617167437</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.3883114490857021</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.3519709329060043</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.3185796369028761</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.2881878151824711</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.2615735948419705</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.2368731250453178</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.2156498068723852</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.1968763803562596</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.1804336073323271</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.1661810480009688</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.1539648395967037</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.1436239248395919</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.1349949873994312</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.1279162614398967</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.1222304021573726</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.1174002263820574</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.1137358553904947</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.1110889899091985</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.1093213384929873</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.1083068044120351</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1079317521423978</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1080945611467032</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1087049227492077</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.1096830479005701</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1109588500965612</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1124711312044231</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1141667850045457</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1160000280780697</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1179316650985516</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.5268737452530389</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.3970719855938932</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2882813549056862</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1954705337302447</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.1201120453659377</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.05952328947817066</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.0115036349496359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.02589741430447267</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.05439639600421278</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.07549367786001342</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.09049172781809672</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.1005137837885736</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.1065223682697911</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.1093371039719587</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1096514579761907</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1080482098393787</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.1050135625362797</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.1009498953715086</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.0969010331686203</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.09160233566048301</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.08673836554109904</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.0817113482175499</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.07666167910052618</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.07170524849942683</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.06693000277607619</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.06240022269150249</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.05816073562701625</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.05424052705944607</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.05065579325159313</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.04708811499559636</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.0439247953941654</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.04114990222557113</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.0387401425545217</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.03666960574796314</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.03491135925266349</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.03343830102623101</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.03222372215261936</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.03124171374132848</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.03046746787667358</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.02987749563813515</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.02944977643326211</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.02916384985130623</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.02900085990269682</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.3233908623393902</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2490529384482138</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.183474676654831</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.1260080051607456</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.07823454757636492</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.03915869737716449</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.007747455427549384</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.01701667368658238</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.03608994299301792</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.05034591811662229</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.06056807218791856</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.06744981703332061</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.0715984223128502</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.07354090223964409</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.07373079998545141</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.0725552571664278</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.0703420113012099</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.06736611230534277</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06443418562851082</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.06048025799891305</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.05687720115447092</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.05309481162685856</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.04925255406285577</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.04543879540161133</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.041721304427126</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.03815109227758873</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.03476526037783823</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.0315893978927823</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.02863963640236844</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.02565603812240485</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.0229796845149481</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.02059030901428088</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.01846953185929789</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.01659893733210405</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.01495992791417437</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.01353389509114586</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.01230245712075408</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.01124768945344351</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.01035232164927664</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.009599893222298008</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.008974868608474105</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.00846271483752822</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.008049946762246065</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.06172933692549538</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.05157122722524958</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.04177712234222136</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.03286143531929244</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.02514292471639077</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.01860876677208779</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.01316728134387031</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.008685351200540863</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.005019898631616575</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.002034609633965776</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.0003924830033087334</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.002366457699619853</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.003975592922832102</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.005292726297760474</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.00637713269014379</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.007276517848005695</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.008028920973717463</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.008664430246532528</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.009193625362486579</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.009638625997705635</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.01004433940919791</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.01039452355337406</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.01070655993747269</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.01098996068542986</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.011250697040656</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.01149250237458454</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.0117176581166246</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.01192752714298468</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.01212291545085033</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.01222778940698338</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.01233518883838062</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.01244051041354165</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.01254077285278762</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.01263406030699236</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.01271926375585651</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.01279585544899684</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.01286371076587169</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.01292297733271153</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.01297398190790748</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.01301716488815058</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.01305303436291114</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.0130821338307898</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.01310501948968982</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>-0.3958781702537477</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.3205255593648888</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.2590744432003666</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.2058946811556144</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.1622508020031936</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.1263820134596008</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.09694982027095785</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.07289014948894265</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.05333223203642488</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.03755014151278625</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.02493180584672996</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.01495780841456729</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.007185942303439195</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.001239339578982496</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.003203037223444161</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.00641424346545085</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.008625966668958386</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.01003417940834069</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.01091739404704825</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.01118813425158821</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.01119410857217793</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.01090489613175877</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.01039410666442201</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.009723018783040471</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.008942534761972366</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>0.008094485342625</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0.007212809446918092</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>0.00632463177560773</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0.005451236664011715</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0.004540339628330219</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0.0036802616174515</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0.002880977685098186</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0.002148294521067613</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0.001484918266690486</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0.0008912644403144398</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0.0003660602072844669</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-9.319345961800673e-05</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.0004898602578208941</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.0008278836299850726</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.001111562257079631</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.001345374170186919</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.001533840331868777</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.001681420424698792</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1450,132 @@
       <c r="E8" t="n">
         <v>0.005313289151803727</v>
       </c>
+      <c r="F8" t="n">
+        <v>0.01607396552311348</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02164685458029055</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.02385403738504235</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.02461384482944134</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.02450458807228522</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02382893036021315</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02276865933962488</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0214469379688149</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.01995444961346597</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.01836092807686618</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.01672075871112959</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.01507616989417536</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.01345941600745842</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.01189449244859008</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.01039858250291661</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.008983307465416113</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.007655807427351457</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.006591204752373468</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.005373685930256222</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.004397060180788399</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.00345276888720896</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.002559058040676464</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.001725523913258575</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.0009561403527040711</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.0002512019399508372</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.0003913057032677407</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.0009747683853218005</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.001503318181662109</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.001956507484586237</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.00236550698497478</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.002732169538001593</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.003061002217844788</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.003356787861932607</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.003623878037422986</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.003866063879782778</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.004086615561437224</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.00428835515689514</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.004473724280731686</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.004644839188344718</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.004803534713675841</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.004951399950091655</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.005089808143930162</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1593,132 @@
       <c r="E9" t="n">
         <v>0.06888597039195972</v>
       </c>
+      <c r="F9" t="n">
+        <v>0.03899610936778179</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02348645253641652</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.01387698084753509</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.008336566238430879</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.004842811035725994</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.002547576885123019</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.001051306589697917</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0001332348465512487</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.0003502487950895559</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.0005045080695885613</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.0004121550178197743</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.0001398041852119346</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.0002584634259204209</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.000738917843550374</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.001266546453121407</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.00181370437343745</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.002358952206847897</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.00292323039473689</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.003362480944844981</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.003883020624670821</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.004315995537406504</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.004689557343027662</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.005013140006946665</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.005289611964468473</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.005520171020211745</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.005706055935960594</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.005849018263878188</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.005951346670221225</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.005840674532482734</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0.005819202320594133</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0.00581033129712323</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0.005788132264871453</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0.005745432185778967</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0.005681823442511605</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0.005599198649522472</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.005500102521693291</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.00538713358722805</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.005262735383725865</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0.005129131367985642</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0.004988312428371349</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0.004842043505255416</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0.004691876969902139</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1736,132 @@
       <c r="E10" t="n">
         <v>0.08319553860686933</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.06883132049254108</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.05301086830451184</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.03668911883116524</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.02283452594238661</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.01145703073678431</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002364902720765471</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.004710386080001542</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.01005401035611726</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.01393977663723001</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-0.01661784502517526</v>
+      </c>
+      <c r="P10" t="n">
+        <v>-0.01831026578528213</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>-0.01921041901930445</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-0.01948437048470834</v>
+      </c>
+      <c r="S10" t="n">
+        <v>-0.01927310973043045</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.01869512435103127</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.01784902088362623</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.01681604141309408</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.01605411728586948</v>
+      </c>
+      <c r="X10" t="n">
+        <v>-0.0147026342512892</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.01371951013477489</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.01263712078151872</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.01151836685578584</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.01040536611948707</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.009326625175639709</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.008301227239237759</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.007341533151486765</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-0.00645500845472247</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.005645506624930757</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>-0.004776611142616311</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>-0.004041255462241906</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-0.003414495947472085</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.002880090167145965</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.002426217930465278</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.002043481444283108</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.001723922495573657</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.001460525963752859</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.001246964729998281</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.001077466833125081</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-0.0009467446530094323</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-0.000849954833822376</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.0007826725898851267</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.0007408718663732207</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -618,6 +1878,132 @@
       </c>
       <c r="E11" t="n">
         <v>0.01472173085360515</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.002343824892591236</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.001981494632530807</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.00264806270790825</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.001782966117516728</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.0004778877621155614</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0007902751226213469</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.001839524359096638</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.002623522999347219</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.00315490878355316</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.003468860455703927</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.003606210330351052</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.003606023491936203</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.003502714250573935</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.003325284120664305</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.003097501715494447</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.002838455421718218</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.002563211256467616</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.002311175620078183</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.002024779761679243</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.001774945390634997</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.001530299624949664</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.001300482000082991</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.001089524794542964</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.0008993921107427261</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.0007309066799741314</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.0005841612649924676</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.0004587482954897863</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.0003539065490743314</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.0002761093857548618</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.0002192402773367513</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.0001773925380522739</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.0001484688760392177</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0.0001313871579619745</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0.0001252575537309654</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0.0001291613449974689</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.0001421222011802464</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.0001631315336209928</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0.0001911820260569585</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0.0002252957642443841</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0.000264544481597195</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>0.0003080626416990746</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0.0003550548945703598</v>
       </c>
     </row>
   </sheetData>
